--- a/p1-indeks-kedalaman/Indeks Kedalaman Kemiskinan (P1) Menurut Provinsi dan Daerah, 2019.xlsx
+++ b/p1-indeks-kedalaman/Indeks Kedalaman Kemiskinan (P1) Menurut Provinsi dan Daerah, 2019.xlsx
@@ -1,41 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/dhiya_muharram_binus_ac_id/Documents/0. Lomba &amp; Sertifikat Dokum/Data Slayer/Github/dataset-slayer/p1-indeks-kedalaman/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_40EF431FB009FE5DD46002AB8855B237A12C505D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
+  <si>
+    <t>38 Provinsi</t>
+  </si>
+  <si>
+    <t>Indeks Kedalaman Kemiskinan (P1) Menurut Provinsi dan Daerah (Persen)</t>
+  </si>
+  <si>
+    <t>Perkotaan</t>
+  </si>
+  <si>
+    <t>Perdesaan</t>
+  </si>
+  <si>
+    <t>Perkotaan+Perdesaan</t>
+  </si>
+  <si>
+    <t>Semester 1 (Maret)</t>
+  </si>
+  <si>
+    <t>Semester 2 (September)</t>
+  </si>
+  <si>
+    <t>Tahunan</t>
+  </si>
+  <si>
+    <t>ACEH</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SUMATERA UTARA</t>
+  </si>
+  <si>
+    <t>SUMATERA BARAT</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>SUMATERA SELATAN</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>KEP. BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>KEP. RIAU</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>DI YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA TIMUR</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA BARAT</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN BARAT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TENGAH</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGAH</t>
+  </si>
+  <si>
+    <t>SULAWESI SELATAN</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGGARA</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>SULAWESI BARAT</t>
+  </si>
+  <si>
+    <t>MALUKU</t>
+  </si>
+  <si>
+    <t>MALUKU UTARA</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT DAYA</t>
+  </si>
+  <si>
+    <t>PAPUA</t>
+  </si>
+  <si>
+    <t>PAPUA SELATAN</t>
+  </si>
+  <si>
+    <t>PAPUA TENGAH</t>
+  </si>
+  <si>
+    <t>PAPUA PEGUNUNGAN</t>
+  </si>
+  <si>
+    <t>INDONESIA</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,7 +204,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -72,6 +213,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,76 +545,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>38 Provinsi</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="str">
-        <v>Indeks Kedalaman Kemiskinan (P1) Menurut Provinsi dan Daerah (Persen)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="str">
-        <v>Perkotaan</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Perdesaan</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Perkotaan+Perdesaan</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>2019</v>
       </c>
-      <c r="E4">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>2019</v>
       </c>
-      <c r="H4">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="str">
-        <v>Semester 1 (Maret)</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Semester 2 (September)</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Tahunan</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Semester 1 (Maret)</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Semester 2 (September)</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Tahunan</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Semester 1 (Maret)</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Semester 2 (September)</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Tahunan</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>ACEH</v>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1.59</v>
@@ -473,8 +649,8 @@
       <c r="C6">
         <v>1.5</v>
       </c>
-      <c r="D6" t="str">
-        <v>-</v>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
         <v>3.15</v>
@@ -482,8 +658,8 @@
       <c r="F6">
         <v>3.1</v>
       </c>
-      <c r="G6" t="str">
-        <v>-</v>
+      <c r="G6" t="s">
+        <v>9</v>
       </c>
       <c r="H6">
         <v>2.64</v>
@@ -491,13 +667,13 @@
       <c r="I6">
         <v>2.58</v>
       </c>
-      <c r="J6" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SUMATERA UTARA</v>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1.23</v>
@@ -505,8 +681,8 @@
       <c r="C7">
         <v>1.34</v>
       </c>
-      <c r="D7" t="str">
-        <v>-</v>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1.54</v>
@@ -514,8 +690,8 @@
       <c r="F7">
         <v>1.65</v>
       </c>
-      <c r="G7" t="str">
-        <v>-</v>
+      <c r="G7" t="s">
+        <v>9</v>
       </c>
       <c r="H7">
         <v>1.37</v>
@@ -523,13 +699,13 @@
       <c r="I7">
         <v>1.48</v>
       </c>
-      <c r="J7" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>SUMATERA BARAT</v>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.77</v>
@@ -537,17 +713,17 @@
       <c r="C8">
         <v>0.54</v>
       </c>
-      <c r="D8" t="str">
-        <v>-</v>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F8">
         <v>0.99</v>
       </c>
-      <c r="G8" t="str">
-        <v>-</v>
+      <c r="G8" t="s">
+        <v>9</v>
       </c>
       <c r="H8">
         <v>0.94</v>
@@ -555,13 +731,13 @@
       <c r="I8">
         <v>0.78</v>
       </c>
-      <c r="J8" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>RIAU</v>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.91</v>
@@ -569,8 +745,8 @@
       <c r="C9">
         <v>0.9</v>
       </c>
-      <c r="D9" t="str">
-        <v>-</v>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
       <c r="E9">
         <v>1.27</v>
@@ -578,22 +754,22 @@
       <c r="F9">
         <v>1.25</v>
       </c>
-      <c r="G9" t="str">
-        <v>-</v>
+      <c r="G9" t="s">
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I9">
-        <v>1.11</v>
-      </c>
-      <c r="J9" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>JAMBI</v>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1.74</v>
@@ -601,8 +777,8 @@
       <c r="C10">
         <v>1.68</v>
       </c>
-      <c r="D10" t="str">
-        <v>-</v>
+      <c r="D10" t="s">
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0.98</v>
@@ -610,8 +786,8 @@
       <c r="F10">
         <v>0.92</v>
       </c>
-      <c r="G10" t="str">
-        <v>-</v>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
       <c r="H10">
         <v>1.23</v>
@@ -619,31 +795,31 @@
       <c r="I10">
         <v>1.17</v>
       </c>
-      <c r="J10" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>SUMATERA SELATAN</v>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
         <v>2.04</v>
       </c>
       <c r="C11">
-        <v>2.26</v>
-      </c>
-      <c r="D11" t="str">
-        <v>-</v>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
       <c r="E11">
         <v>2.16</v>
       </c>
       <c r="F11">
-        <v>2.07</v>
-      </c>
-      <c r="G11" t="str">
-        <v>-</v>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
       </c>
       <c r="H11">
         <v>2.12</v>
@@ -651,13 +827,13 @@
       <c r="I11">
         <v>2.14</v>
       </c>
-      <c r="J11" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>BENGKULU</v>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2.44</v>
@@ -665,8 +841,8 @@
       <c r="C12">
         <v>2.13</v>
       </c>
-      <c r="D12" t="str">
-        <v>-</v>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
       <c r="E12">
         <v>2.5</v>
@@ -674,22 +850,22 @@
       <c r="F12">
         <v>1.95</v>
       </c>
-      <c r="G12" t="str">
-        <v>-</v>
+      <c r="G12" t="s">
+        <v>9</v>
       </c>
       <c r="H12">
         <v>2.48</v>
       </c>
       <c r="I12">
-        <v>2.01</v>
-      </c>
-      <c r="J12" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>LAMPUNG</v>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13">
         <v>1.47</v>
@@ -697,17 +873,17 @@
       <c r="C13">
         <v>1.38</v>
       </c>
-      <c r="D13" t="str">
-        <v>-</v>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
       <c r="E13">
         <v>2.14</v>
       </c>
       <c r="F13">
-        <v>2.26</v>
-      </c>
-      <c r="G13" t="str">
-        <v>-</v>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
       </c>
       <c r="H13">
         <v>1.93</v>
@@ -715,13 +891,13 @@
       <c r="I13">
         <v>1.99</v>
       </c>
-      <c r="J13" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>KEP. BANGKA BELITUNG</v>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0.33</v>
@@ -729,8 +905,8 @@
       <c r="C14">
         <v>0.41</v>
       </c>
-      <c r="D14" t="str">
-        <v>-</v>
+      <c r="D14" t="s">
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0.74</v>
@@ -738,22 +914,22 @@
       <c r="F14">
         <v>0.76</v>
       </c>
-      <c r="G14" t="str">
-        <v>-</v>
+      <c r="G14" t="s">
+        <v>9</v>
       </c>
       <c r="H14">
         <v>0.51</v>
       </c>
       <c r="I14">
-        <v>0.57</v>
-      </c>
-      <c r="J14" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>KEP. RIAU</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0.59</v>
@@ -761,8 +937,8 @@
       <c r="C15">
         <v>0.83</v>
       </c>
-      <c r="D15" t="str">
-        <v>-</v>
+      <c r="D15" t="s">
+        <v>9</v>
       </c>
       <c r="E15">
         <v>1.58</v>
@@ -770,8 +946,8 @@
       <c r="F15">
         <v>1.51</v>
       </c>
-      <c r="G15" t="str">
-        <v>-</v>
+      <c r="G15" t="s">
+        <v>9</v>
       </c>
       <c r="H15">
         <v>0.69</v>
@@ -779,13 +955,13 @@
       <c r="I15">
         <v>0.9</v>
       </c>
-      <c r="J15" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>DKI JAKARTA</v>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0.5</v>
@@ -793,17 +969,17 @@
       <c r="C16">
         <v>0.4</v>
       </c>
-      <c r="D16" t="str">
-        <v>-</v>
-      </c>
-      <c r="E16" t="str">
-        <v>-</v>
-      </c>
-      <c r="F16" t="str">
-        <v>-</v>
-      </c>
-      <c r="G16" t="str">
-        <v>-</v>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
       </c>
       <c r="H16">
         <v>0.5</v>
@@ -811,13 +987,13 @@
       <c r="I16">
         <v>0.4</v>
       </c>
-      <c r="J16" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>JAWA BARAT</v>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1.03</v>
@@ -825,8 +1001,8 @@
       <c r="C17">
         <v>0.98</v>
       </c>
-      <c r="D17" t="str">
-        <v>-</v>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
       <c r="E17">
         <v>1.31</v>
@@ -834,22 +1010,22 @@
       <c r="F17">
         <v>1.29</v>
       </c>
-      <c r="G17" t="str">
-        <v>-</v>
+      <c r="G17" t="s">
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I17">
         <v>1.06</v>
       </c>
-      <c r="J17" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>JAWA TENGAH</v>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
       </c>
       <c r="B18">
         <v>1.32</v>
@@ -857,8 +1033,8 @@
       <c r="C18">
         <v>1.28</v>
       </c>
-      <c r="D18" t="str">
-        <v>-</v>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
       <c r="E18">
         <v>1.75</v>
@@ -866,8 +1042,8 @@
       <c r="F18">
         <v>1.59</v>
       </c>
-      <c r="G18" t="str">
-        <v>-</v>
+      <c r="G18" t="s">
+        <v>9</v>
       </c>
       <c r="H18">
         <v>1.53</v>
@@ -875,13 +1051,13 @@
       <c r="I18">
         <v>1.43</v>
       </c>
-      <c r="J18" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>DI YOGYAKARTA</v>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
       </c>
       <c r="B19">
         <v>1.73</v>
@@ -889,8 +1065,8 @@
       <c r="C19">
         <v>1.49</v>
       </c>
-      <c r="D19" t="str">
-        <v>-</v>
+      <c r="D19" t="s">
+        <v>9</v>
       </c>
       <c r="E19">
         <v>1.78</v>
@@ -898,8 +1074,8 @@
       <c r="F19">
         <v>1.7</v>
       </c>
-      <c r="G19" t="str">
-        <v>-</v>
+      <c r="G19" t="s">
+        <v>9</v>
       </c>
       <c r="H19">
         <v>1.74</v>
@@ -907,31 +1083,31 @@
       <c r="I19">
         <v>1.54</v>
       </c>
-      <c r="J19" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>JAWA TIMUR</v>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C20">
         <v>1.01</v>
       </c>
-      <c r="D20" t="str">
-        <v>-</v>
+      <c r="D20" t="s">
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F20">
-        <v>2.3</v>
-      </c>
-      <c r="G20" t="str">
-        <v>-</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
       </c>
       <c r="H20">
         <v>1.8</v>
@@ -939,13 +1115,13 @@
       <c r="I20">
         <v>1.61</v>
       </c>
-      <c r="J20" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>BANTEN</v>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0.63</v>
@@ -953,17 +1129,17 @@
       <c r="C21">
         <v>0.62</v>
       </c>
-      <c r="D21" t="str">
-        <v>-</v>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F21">
         <v>1.26</v>
       </c>
-      <c r="G21" t="str">
-        <v>-</v>
+      <c r="G21" t="s">
+        <v>9</v>
       </c>
       <c r="H21">
         <v>0.76</v>
@@ -971,13 +1147,13 @@
       <c r="I21">
         <v>0.8</v>
       </c>
-      <c r="J21" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>BALI</v>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0.49</v>
@@ -985,8 +1161,8 @@
       <c r="C22">
         <v>0.52</v>
       </c>
-      <c r="D22" t="str">
-        <v>-</v>
+      <c r="D22" t="s">
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0.64</v>
@@ -994,8 +1170,8 @@
       <c r="F22">
         <v>0.47</v>
       </c>
-      <c r="G22" t="str">
-        <v>-</v>
+      <c r="G22" t="s">
+        <v>9</v>
       </c>
       <c r="H22">
         <v>0.53</v>
@@ -1003,13 +1179,13 @@
       <c r="I22">
         <v>0.5</v>
       </c>
-      <c r="J22" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>NUSA TENGGARA BARAT</v>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
       </c>
       <c r="B23">
         <v>2.5</v>
@@ -1017,17 +1193,17 @@
       <c r="C23">
         <v>2.17</v>
       </c>
-      <c r="D23" t="str">
-        <v>-</v>
+      <c r="D23" t="s">
+        <v>9</v>
       </c>
       <c r="E23">
         <v>2.17</v>
       </c>
       <c r="F23">
-        <v>2.07</v>
-      </c>
-      <c r="G23" t="str">
-        <v>-</v>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
       </c>
       <c r="H23">
         <v>2.33</v>
@@ -1035,22 +1211,22 @@
       <c r="I23">
         <v>2.12</v>
       </c>
-      <c r="J23" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>NUSA TENGGARA TIMUR</v>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C24">
         <v>1.32</v>
       </c>
-      <c r="D24" t="str">
-        <v>-</v>
+      <c r="D24" t="s">
+        <v>9</v>
       </c>
       <c r="E24">
         <v>5.09</v>
@@ -1058,22 +1234,22 @@
       <c r="F24">
         <v>5</v>
       </c>
-      <c r="G24" t="str">
-        <v>-</v>
+      <c r="G24" t="s">
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I24">
         <v>4.13</v>
       </c>
-      <c r="J24" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>KALIMANTAN BARAT</v>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0.76</v>
@@ -1081,31 +1257,31 @@
       <c r="C25">
         <v>0.78</v>
       </c>
-      <c r="D25" t="str">
-        <v>-</v>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
       <c r="E25">
         <v>1.35</v>
       </c>
       <c r="F25">
-        <v>1.16</v>
-      </c>
-      <c r="G25" t="str">
-        <v>-</v>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I25">
         <v>1.02</v>
       </c>
-      <c r="J25" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>KALIMANTAN TENGAH</v>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>29</v>
       </c>
       <c r="B26">
         <v>0.71</v>
@@ -1113,8 +1289,8 @@
       <c r="C26">
         <v>0.81</v>
       </c>
-      <c r="D26" t="str">
-        <v>-</v>
+      <c r="D26" t="s">
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0.69</v>
@@ -1122,8 +1298,8 @@
       <c r="F26">
         <v>0.73</v>
       </c>
-      <c r="G26" t="str">
-        <v>-</v>
+      <c r="G26" t="s">
+        <v>9</v>
       </c>
       <c r="H26">
         <v>0.7</v>
@@ -1131,13 +1307,13 @@
       <c r="I26">
         <v>0.76</v>
       </c>
-      <c r="J26" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>KALIMANTAN SELATAN</v>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0.6</v>
@@ -1145,8 +1321,8 @@
       <c r="C27">
         <v>0.64</v>
       </c>
-      <c r="D27" t="str">
-        <v>-</v>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0.79</v>
@@ -1154,8 +1330,8 @@
       <c r="F27">
         <v>0.68</v>
       </c>
-      <c r="G27" t="str">
-        <v>-</v>
+      <c r="G27" t="s">
+        <v>9</v>
       </c>
       <c r="H27">
         <v>0.7</v>
@@ -1163,13 +1339,13 @@
       <c r="I27">
         <v>0.66</v>
       </c>
-      <c r="J27" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>KALIMANTAN TIMUR</v>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
       </c>
       <c r="B28">
         <v>0.61</v>
@@ -1177,8 +1353,8 @@
       <c r="C28">
         <v>0.61</v>
       </c>
-      <c r="D28" t="str">
-        <v>-</v>
+      <c r="D28" t="s">
+        <v>9</v>
       </c>
       <c r="E28">
         <v>1.53</v>
@@ -1186,8 +1362,8 @@
       <c r="F28">
         <v>1.78</v>
       </c>
-      <c r="G28" t="str">
-        <v>-</v>
+      <c r="G28" t="s">
+        <v>9</v>
       </c>
       <c r="H28">
         <v>0.91</v>
@@ -1195,13 +1371,13 @@
       <c r="I28">
         <v>0.99</v>
       </c>
-      <c r="J28" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>KALIMANTAN UTARA</v>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
       </c>
       <c r="B29">
         <v>0.85</v>
@@ -1209,8 +1385,8 @@
       <c r="C29">
         <v>0.77</v>
       </c>
-      <c r="D29" t="str">
-        <v>-</v>
+      <c r="D29" t="s">
+        <v>9</v>
       </c>
       <c r="E29">
         <v>1.63</v>
@@ -1218,22 +1394,22 @@
       <c r="F29">
         <v>1.66</v>
       </c>
-      <c r="G29" t="str">
-        <v>-</v>
+      <c r="G29" t="s">
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I29">
-        <v>1.12</v>
-      </c>
-      <c r="J29" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>SULAWESI UTARA</v>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
       </c>
       <c r="B30">
         <v>0.77</v>
@@ -1241,8 +1417,8 @@
       <c r="C30">
         <v>0.46</v>
       </c>
-      <c r="D30" t="str">
-        <v>-</v>
+      <c r="D30" t="s">
+        <v>9</v>
       </c>
       <c r="E30">
         <v>1.62</v>
@@ -1250,8 +1426,8 @@
       <c r="F30">
         <v>1.36</v>
       </c>
-      <c r="G30" t="str">
-        <v>-</v>
+      <c r="G30" t="s">
+        <v>9</v>
       </c>
       <c r="H30">
         <v>1.18</v>
@@ -1259,13 +1435,13 @@
       <c r="I30">
         <v>0.89</v>
       </c>
-      <c r="J30" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>SULAWESI TENGAH</v>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
       </c>
       <c r="B31">
         <v>1.43</v>
@@ -1273,8 +1449,8 @@
       <c r="C31">
         <v>1.98</v>
       </c>
-      <c r="D31" t="str">
-        <v>-</v>
+      <c r="D31" t="s">
+        <v>9</v>
       </c>
       <c r="E31">
         <v>2.71</v>
@@ -1282,8 +1458,8 @@
       <c r="F31">
         <v>3.71</v>
       </c>
-      <c r="G31" t="str">
-        <v>-</v>
+      <c r="G31" t="s">
+        <v>9</v>
       </c>
       <c r="H31">
         <v>2.33</v>
@@ -1291,13 +1467,13 @@
       <c r="I31">
         <v>3.19</v>
       </c>
-      <c r="J31" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>SULAWESI SELATAN</v>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0.63</v>
@@ -1305,17 +1481,17 @@
       <c r="C32">
         <v>0.81</v>
       </c>
-      <c r="D32" t="str">
-        <v>-</v>
+      <c r="D32" t="s">
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F32">
-        <v>2.26</v>
-      </c>
-      <c r="G32" t="str">
-        <v>-</v>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
       </c>
       <c r="H32">
         <v>1.45</v>
@@ -1323,13 +1499,13 @@
       <c r="I32">
         <v>1.63</v>
       </c>
-      <c r="J32" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>SULAWESI TENGGARA</v>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
       </c>
       <c r="B33">
         <v>1.35</v>
@@ -1337,8 +1513,8 @@
       <c r="C33">
         <v>1.45</v>
       </c>
-      <c r="D33" t="str">
-        <v>-</v>
+      <c r="D33" t="s">
+        <v>9</v>
       </c>
       <c r="E33">
         <v>2.79</v>
@@ -1346,8 +1522,8 @@
       <c r="F33">
         <v>2.74</v>
       </c>
-      <c r="G33" t="str">
-        <v>-</v>
+      <c r="G33" t="s">
+        <v>9</v>
       </c>
       <c r="H33">
         <v>2.23</v>
@@ -1355,31 +1531,31 @@
       <c r="I33">
         <v>2.23</v>
       </c>
-      <c r="J33" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>GORONTALO</v>
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>37</v>
       </c>
       <c r="B34">
         <v>0.43</v>
       </c>
       <c r="C34">
-        <v>0.58</v>
-      </c>
-      <c r="D34" t="str">
-        <v>-</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
       </c>
       <c r="E34">
         <v>4.26</v>
       </c>
       <c r="F34">
-        <v>4.1</v>
-      </c>
-      <c r="G34" t="str">
-        <v>-</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
       </c>
       <c r="H34">
         <v>2.64</v>
@@ -1387,13 +1563,13 @@
       <c r="I34">
         <v>2.61</v>
       </c>
-      <c r="J34" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>SULAWESI BARAT</v>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>38</v>
       </c>
       <c r="B35">
         <v>1.32</v>
@@ -1401,8 +1577,8 @@
       <c r="C35">
         <v>1.65</v>
       </c>
-      <c r="D35" t="str">
-        <v>-</v>
+      <c r="D35" t="s">
+        <v>9</v>
       </c>
       <c r="E35">
         <v>1.88</v>
@@ -1410,8 +1586,8 @@
       <c r="F35">
         <v>1.37</v>
       </c>
-      <c r="G35" t="str">
-        <v>-</v>
+      <c r="G35" t="s">
+        <v>9</v>
       </c>
       <c r="H35">
         <v>1.75</v>
@@ -1419,13 +1595,13 @@
       <c r="I35">
         <v>1.44</v>
       </c>
-      <c r="J35" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>MALUKU</v>
+      <c r="J35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>39</v>
       </c>
       <c r="B36">
         <v>0.72</v>
@@ -1433,8 +1609,8 @@
       <c r="C36">
         <v>0.65</v>
       </c>
-      <c r="D36" t="str">
-        <v>-</v>
+      <c r="D36" t="s">
+        <v>9</v>
       </c>
       <c r="E36">
         <v>5.33</v>
@@ -1442,8 +1618,8 @@
       <c r="F36">
         <v>6.14</v>
       </c>
-      <c r="G36" t="str">
-        <v>-</v>
+      <c r="G36" t="s">
+        <v>9</v>
       </c>
       <c r="H36">
         <v>3.32</v>
@@ -1451,13 +1627,13 @@
       <c r="I36">
         <v>3.74</v>
       </c>
-      <c r="J36" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>MALUKU UTARA</v>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0.53</v>
@@ -1465,8 +1641,8 @@
       <c r="C37">
         <v>0.25</v>
       </c>
-      <c r="D37" t="str">
-        <v>-</v>
+      <c r="D37" t="s">
+        <v>9</v>
       </c>
       <c r="E37">
         <v>1.03</v>
@@ -1474,8 +1650,8 @@
       <c r="F37">
         <v>1.41</v>
       </c>
-      <c r="G37" t="str">
-        <v>-</v>
+      <c r="G37" t="s">
+        <v>9</v>
       </c>
       <c r="H37">
         <v>0.89</v>
@@ -1483,13 +1659,13 @@
       <c r="I37">
         <v>1.08</v>
       </c>
-      <c r="J37" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>PAPUA BARAT</v>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0.96</v>
@@ -1497,17 +1673,17 @@
       <c r="C38">
         <v>0.82</v>
       </c>
-      <c r="D38" t="str">
-        <v>-</v>
+      <c r="D38" t="s">
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>8.97</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="F38">
         <v>9.16</v>
       </c>
-      <c r="G38" t="str">
-        <v>-</v>
+      <c r="G38" t="s">
+        <v>9</v>
       </c>
       <c r="H38">
         <v>5.6</v>
@@ -1515,45 +1691,45 @@
       <c r="I38">
         <v>5.64</v>
       </c>
-      <c r="J38" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>PAPUA BARAT DAYA</v>
-      </c>
-      <c r="B39" t="str">
-        <v>-</v>
-      </c>
-      <c r="C39" t="str">
-        <v>-</v>
-      </c>
-      <c r="D39" t="str">
-        <v>-</v>
-      </c>
-      <c r="E39" t="str">
-        <v>-</v>
-      </c>
-      <c r="F39" t="str">
-        <v>-</v>
-      </c>
-      <c r="G39" t="str">
-        <v>-</v>
-      </c>
-      <c r="H39" t="str">
-        <v>-</v>
-      </c>
-      <c r="I39" t="str">
-        <v>-</v>
-      </c>
-      <c r="J39" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>PAPUA</v>
+      <c r="J38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>43</v>
       </c>
       <c r="B40">
         <v>0.71</v>
@@ -1561,8 +1737,8 @@
       <c r="C40">
         <v>0.59</v>
       </c>
-      <c r="D40" t="str">
-        <v>-</v>
+      <c r="D40" t="s">
+        <v>9</v>
       </c>
       <c r="E40">
         <v>9.76</v>
@@ -1570,8 +1746,8 @@
       <c r="F40">
         <v>8.26</v>
       </c>
-      <c r="G40" t="str">
-        <v>-</v>
+      <c r="G40" t="s">
+        <v>9</v>
       </c>
       <c r="H40">
         <v>7.17</v>
@@ -1579,109 +1755,109 @@
       <c r="I40">
         <v>6.07</v>
       </c>
-      <c r="J40" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>PAPUA SELATAN</v>
-      </c>
-      <c r="B41" t="str">
-        <v>-</v>
-      </c>
-      <c r="C41" t="str">
-        <v>-</v>
-      </c>
-      <c r="D41" t="str">
-        <v>-</v>
-      </c>
-      <c r="E41" t="str">
-        <v>-</v>
-      </c>
-      <c r="F41" t="str">
-        <v>-</v>
-      </c>
-      <c r="G41" t="str">
-        <v>-</v>
-      </c>
-      <c r="H41" t="str">
-        <v>-</v>
-      </c>
-      <c r="I41" t="str">
-        <v>-</v>
-      </c>
-      <c r="J41" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>PAPUA TENGAH</v>
-      </c>
-      <c r="B42" t="str">
-        <v>-</v>
-      </c>
-      <c r="C42" t="str">
-        <v>-</v>
-      </c>
-      <c r="D42" t="str">
-        <v>-</v>
-      </c>
-      <c r="E42" t="str">
-        <v>-</v>
-      </c>
-      <c r="F42" t="str">
-        <v>-</v>
-      </c>
-      <c r="G42" t="str">
-        <v>-</v>
-      </c>
-      <c r="H42" t="str">
-        <v>-</v>
-      </c>
-      <c r="I42" t="str">
-        <v>-</v>
-      </c>
-      <c r="J42" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>PAPUA PEGUNUNGAN</v>
-      </c>
-      <c r="B43" t="str">
-        <v>-</v>
-      </c>
-      <c r="C43" t="str">
-        <v>-</v>
-      </c>
-      <c r="D43" t="str">
-        <v>-</v>
-      </c>
-      <c r="E43" t="str">
-        <v>-</v>
-      </c>
-      <c r="F43" t="str">
-        <v>-</v>
-      </c>
-      <c r="G43" t="str">
-        <v>-</v>
-      </c>
-      <c r="H43" t="str">
-        <v>-</v>
-      </c>
-      <c r="I43" t="str">
-        <v>-</v>
-      </c>
-      <c r="J43" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>INDONESIA</v>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>47</v>
       </c>
       <c r="B44">
         <v>1.05</v>
@@ -1689,17 +1865,17 @@
       <c r="C44">
         <v>1.02</v>
       </c>
-      <c r="D44" t="str">
-        <v>-</v>
+      <c r="D44" t="s">
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F44">
         <v>2.11</v>
       </c>
-      <c r="G44" t="str">
-        <v>-</v>
+      <c r="G44" t="s">
+        <v>9</v>
       </c>
       <c r="H44">
         <v>1.55</v>
@@ -1707,8 +1883,8 @@
       <c r="I44">
         <v>1.5</v>
       </c>
-      <c r="J44" t="str">
-        <v>-</v>
+      <c r="J44" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1722,8 +1898,9 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J44"/>
+    <ignoredError sqref="A1:J2 A4:J44 A3:G3 I3:J3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>